--- a/Unity/Assets/Config/Excel/EnemyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EnemyConfig.xlsx
@@ -27,48 +27,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>预制体名字</t>
-  </si>
-  <si>
     <t>英雄名称</t>
   </si>
   <si>
+    <t>对应模型</t>
+  </si>
+  <si>
     <t>等级</t>
   </si>
   <si>
-    <t>PrefabName</t>
+    <t>星级</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>HeroConfigId</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
+    <t>Star</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>Mogu</t>
-  </si>
-  <si>
     <t>蘑菇</t>
   </si>
   <si>
-    <t>Yazi</t>
-  </si>
-  <si>
     <t>兔子</t>
-  </si>
-  <si>
-    <t>Tuzi</t>
   </si>
   <si>
     <t>鸭子</t>
@@ -1072,7 +1069,7 @@
   <dimension ref="C3:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:J5"/>
+      <selection activeCell="G3" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -1080,17 +1077,15 @@
     <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6272727272727" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.1818181818182" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.2727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.2727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5454545454545" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.8181818181818" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.5454545454545" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.87272727272727" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.75454545454545" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="6.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.75454545454545" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:6">
+    <row r="3" ht="13.5" spans="3:7">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1103,33 +1098,42 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" ht="13.5" spans="3:6">
+    <row r="4" ht="13.5" spans="3:7">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="3:6">
+    <row r="5" ht="13.5" spans="3:7">
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:7">
@@ -1137,30 +1141,34 @@
         <v>10001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1005</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="3:7">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1006</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="3:7">
       <c r="C8" s="1">
@@ -1169,16 +1177,18 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
+      <c r="E8" s="1">
+        <v>1007</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="7:7">
-      <c r="G9" s="4"/>
+    <row r="9" s="1" customFormat="1" ht="14" spans="5:5">
+      <c r="E9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/EnemyConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EnemyConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -44,6 +44,12 @@
     <t>星级</t>
   </si>
   <si>
+    <t>奖励经验值</t>
+  </si>
+  <si>
+    <t>奖励肉</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -54,6 +60,12 @@
   </si>
   <si>
     <t>Star</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Meat</t>
   </si>
   <si>
     <t>int</t>
@@ -1066,13 +1078,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:G9"/>
+  <dimension ref="C3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G5"/>
+      <selection activeCell="I3" sqref="I3:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
@@ -1081,11 +1093,11 @@
     <col min="5" max="5" width="21.5454545454545" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.8181818181818" style="2" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.75454545454545" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.81818181818182" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:7">
+    <row r="3" ht="13.5" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1101,47 +1113,65 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" ht="13.5" spans="3:7">
+    <row r="4" ht="13.5" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="3:7">
+    <row r="5" ht="13.5" spans="3:9">
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:7">
+    <row r="6" s="1" customFormat="1" spans="3:9">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>1005</v>
@@ -1152,13 +1182,19 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:7">
+    <row r="7" s="1" customFormat="1" spans="3:9">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>1006</v>
@@ -1169,13 +1205,19 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:7">
+    <row r="8" s="1" customFormat="1" spans="3:9">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>1007</v>
@@ -1186,8 +1228,14 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="14" spans="5:5">
+    <row r="9" s="1" customFormat="1" spans="5:5">
       <c r="E9" s="4"/>
     </row>
   </sheetData>
